--- a/US/data/BTS/TRPT/CRTM_historical - Annual.xlsx
+++ b/US/data/BTS/TRPT/CRTM_historical - Annual.xlsx
@@ -581,10 +581,10 @@
         <v>16413.382</v>
       </c>
       <c r="AF2" t="n">
-        <v>18745.922</v>
+        <v>18745.93</v>
       </c>
       <c r="AG2" t="n">
-        <v>20150.444</v>
+        <v>20150.531</v>
       </c>
     </row>
     <row r="3">
@@ -685,7 +685,7 @@
         <v>6629.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>7970.652</v>
+        <v>7948.014</v>
       </c>
     </row>
     <row r="4">
@@ -786,7 +786,7 @@
         <v>1251.849</v>
       </c>
       <c r="AG4" t="n">
-        <v>1704.96</v>
+        <v>1690.077</v>
       </c>
     </row>
     <row r="5">
@@ -887,7 +887,7 @@
         <v>10495.16</v>
       </c>
       <c r="AG5" t="n">
-        <v>11392.371</v>
+        <v>11416.459</v>
       </c>
     </row>
     <row r="6">
@@ -988,7 +988,7 @@
         <v>39474.292</v>
       </c>
       <c r="AG6" t="n">
-        <v>48539.4</v>
+        <v>48709.82</v>
       </c>
     </row>
     <row r="7">
@@ -1090,10 +1090,10 @@
         <v>76720.97900000001</v>
       </c>
       <c r="AF7" t="n">
-        <v>76596.323</v>
+        <v>76596.33100000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>89757.826</v>
+        <v>89914.902</v>
       </c>
     </row>
   </sheetData>
